--- a/excels/config/server/hero/server_hero_star.xlsx
+++ b/excels/config/server/hero/server_hero_star.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="13395"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="server_hero_star" sheetId="1" r:id="rId1"/>
@@ -104,14 +104,16 @@
   </si>
   <si>
     <t>解锁每个技能里面的被动技能加点
-攻击力+20</t>
+攻击力+20
+基础技能伤害提高20%</t>
   </si>
   <si>
     <t>小黑3星</t>
   </si>
   <si>
     <t>解锁2技能【连续射击】分支
-攻击速度+25%</t>
+攻击速度+25%
+基础技能伤害提高20%</t>
   </si>
   <si>
     <t>小黑4星</t>
@@ -119,7 +121,8 @@
   <si>
     <t>解锁3技能【风暴环绕】分支，
 4技能【能量回复】分支
-全元素穿透+15%</t>
+全元素穿透+15%
+所有技能基础伤害提高25%</t>
   </si>
   <si>
     <t>小黑5星</t>
@@ -127,7 +130,8 @@
   <si>
     <t>解锁5技能【寒霜】、【追风】、【热烈】分支，
 并为复仇赋予【持续型】技能标签
-全元素伤害+15%</t>
+全元素伤害+15%
+所有技能基础伤害提高35%</t>
   </si>
 </sst>
 </file>
@@ -1285,31 +1289,31 @@
     </dxf>
   </dxfs>
   <tableStyles count="5" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="绿色中色系标题行镶边行表格样式" count="5" xr9:uid="{3896850E-90FA-4CAD-89BD-DD7323628368}">
+    <tableStyle name="绿色中色系标题行镶边行表格样式" count="5" xr9:uid="{55B918A3-2E8A-4A0F-84D3-316B81861F5E}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
       <tableStyleElement type="firstColumnStripe" dxfId="1"/>
       <tableStyleElement type="secondColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="蓝色镶边行表格样式" count="5" xr9:uid="{F5480135-6ECA-4489-AD36-BB506AEF2A40}">
+    <tableStyle name="蓝色镶边行表格样式" count="5" xr9:uid="{0356D032-F39B-4655-B390-74E8D0F50F02}">
       <tableStyleElement type="wholeTable" dxfId="9"/>
       <tableStyleElement type="headerRow" dxfId="8"/>
       <tableStyleElement type="totalRow" dxfId="7"/>
       <tableStyleElement type="firstRowStripe" dxfId="6"/>
       <tableStyleElement type="secondRowStripe" dxfId="5"/>
     </tableStyle>
-    <tableStyle name="红色线条灰白相间表格样式" count="4" xr9:uid="{C572E71E-F3F4-44F9-A658-D27DA51679DD}">
+    <tableStyle name="红色线条灰白相间表格样式" count="4" xr9:uid="{AF3D83F3-CCB9-48AF-B934-6CC830E996DB}">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="firstRowStripe" dxfId="11"/>
       <tableStyleElement type="secondRowStripe" dxfId="10"/>
     </tableStyle>
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{E06306A2-EC5F-4399-96CF-521B63EA1478}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{17393D6C-FC3F-44B6-8F44-D9B0A9FC84AA}">
       <tableStyleElement type="wholeTable" dxfId="15"/>
       <tableStyleElement type="headerRow" dxfId="14"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{DFD1FF6D-4B8E-4BBF-9952-DB8F03FB0B77}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{EE446AD3-7FB6-47CC-89F8-88E9F8D46730}">
       <tableStyleElement type="wholeTable" dxfId="18"/>
       <tableStyleElement type="headerRow" dxfId="17"/>
       <tableStyleElement type="secondRowStripe" dxfId="16"/>
@@ -1620,7 +1624,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="G8" sqref="G8"/>
+      <selection pane="topRight" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
@@ -1832,7 +1836,7 @@
       <c r="T4" s="10"/>
       <c r="U4" s="15"/>
     </row>
-    <row r="5" ht="39" customHeight="1" spans="1:21">
+    <row r="5" ht="60" customHeight="1" spans="1:21">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -1871,7 +1875,7 @@
       <c r="T5" s="7"/>
       <c r="U5" s="14"/>
     </row>
-    <row r="6" ht="48" customHeight="1" spans="1:21">
+    <row r="6" ht="52" customHeight="1" spans="1:21">
       <c r="A6" s="9">
         <v>3</v>
       </c>
@@ -1910,7 +1914,7 @@
       <c r="T6" s="10"/>
       <c r="U6" s="15"/>
     </row>
-    <row r="7" ht="51" customHeight="1" spans="1:4">
+    <row r="7" ht="69" customHeight="1" spans="1:4">
       <c r="A7" s="9">
         <v>4</v>
       </c>

--- a/excels/config/server/hero/server_hero_star.xlsx
+++ b/excels/config/server/hero/server_hero_star.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="13395"/>
   </bookViews>
   <sheets>
     <sheet name="server_hero_star" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
   <si>
     <t>下标</t>
   </si>
@@ -1289,31 +1289,31 @@
     </dxf>
   </dxfs>
   <tableStyles count="5" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="绿色中色系标题行镶边行表格样式" count="5" xr9:uid="{55B918A3-2E8A-4A0F-84D3-316B81861F5E}">
+    <tableStyle name="绿色中色系标题行镶边行表格样式" count="5" xr9:uid="{1753B0B3-E5C9-44ED-87E8-DD7077E9A729}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
       <tableStyleElement type="firstColumnStripe" dxfId="1"/>
       <tableStyleElement type="secondColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="蓝色镶边行表格样式" count="5" xr9:uid="{0356D032-F39B-4655-B390-74E8D0F50F02}">
+    <tableStyle name="蓝色镶边行表格样式" count="5" xr9:uid="{18A81CD7-587E-4ED1-92C4-9046577D2F4D}">
       <tableStyleElement type="wholeTable" dxfId="9"/>
       <tableStyleElement type="headerRow" dxfId="8"/>
       <tableStyleElement type="totalRow" dxfId="7"/>
       <tableStyleElement type="firstRowStripe" dxfId="6"/>
       <tableStyleElement type="secondRowStripe" dxfId="5"/>
     </tableStyle>
-    <tableStyle name="红色线条灰白相间表格样式" count="4" xr9:uid="{AF3D83F3-CCB9-48AF-B934-6CC830E996DB}">
+    <tableStyle name="红色线条灰白相间表格样式" count="4" xr9:uid="{E227588D-4322-4BE9-B713-84617A7CE6BD}">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="firstRowStripe" dxfId="11"/>
       <tableStyleElement type="secondRowStripe" dxfId="10"/>
     </tableStyle>
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{17393D6C-FC3F-44B6-8F44-D9B0A9FC84AA}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{61470F93-99A6-493F-8D08-0652D42ED82D}">
       <tableStyleElement type="wholeTable" dxfId="15"/>
       <tableStyleElement type="headerRow" dxfId="14"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{EE446AD3-7FB6-47CC-89F8-88E9F8D46730}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{1D8B5751-3742-40F4-8E5C-5E12E753EF4A}">
       <tableStyleElement type="wholeTable" dxfId="18"/>
       <tableStyleElement type="headerRow" dxfId="17"/>
       <tableStyleElement type="secondRowStripe" dxfId="16"/>
@@ -1624,7 +1624,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="D10" sqref="D10"/>
+      <selection pane="topRight" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
@@ -1914,7 +1914,7 @@
       <c r="T6" s="10"/>
       <c r="U6" s="15"/>
     </row>
-    <row r="7" ht="69" customHeight="1" spans="1:4">
+    <row r="7" ht="69" customHeight="1" spans="1:8">
       <c r="A7" s="9">
         <v>4</v>
       </c>
@@ -1927,8 +1927,20 @@
       <c r="D7" s="11">
         <v>4</v>
       </c>
+      <c r="E7" s="11">
+        <v>6</v>
+      </c>
+      <c r="F7" s="10">
+        <v>0</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="8" ht="54" customHeight="1" spans="1:4">
+    <row r="8" ht="54" customHeight="1" spans="1:8">
       <c r="A8" s="6">
         <v>5</v>
       </c>
@@ -1940,6 +1952,18 @@
       </c>
       <c r="D8" s="11">
         <v>5</v>
+      </c>
+      <c r="E8" s="11">
+        <v>6</v>
+      </c>
+      <c r="F8" s="10">
+        <v>0</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/excels/config/server/hero/server_hero_star.xlsx
+++ b/excels/config/server/hero/server_hero_star.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="13395"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="server_hero_star" sheetId="1" r:id="rId1"/>
@@ -105,7 +105,7 @@
   <si>
     <t>解锁每个技能里面的被动技能加点
 攻击力+20
-基础技能伤害提高20%</t>
+基础技能伤害*20%</t>
   </si>
   <si>
     <t>小黑3星</t>
@@ -113,7 +113,7 @@
   <si>
     <t>解锁2技能【连续射击】分支
 攻击速度+25%
-基础技能伤害提高20%</t>
+基础技能伤害*20%</t>
   </si>
   <si>
     <t>小黑4星</t>
@@ -122,7 +122,7 @@
     <t>解锁3技能【风暴环绕】分支，
 4技能【能量回复】分支
 全元素穿透+15%
-所有技能基础伤害提高25%</t>
+所有技能基础伤害*25%</t>
   </si>
   <si>
     <t>小黑5星</t>
@@ -131,7 +131,7 @@
     <t>解锁5技能【寒霜】、【追风】、【热烈】分支，
 并为复仇赋予【持续型】技能标签
 全元素伤害+15%
-所有技能基础伤害提高35%</t>
+所有技能基础伤害*35%</t>
   </si>
 </sst>
 </file>
@@ -1289,31 +1289,31 @@
     </dxf>
   </dxfs>
   <tableStyles count="5" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="绿色中色系标题行镶边行表格样式" count="5" xr9:uid="{1753B0B3-E5C9-44ED-87E8-DD7077E9A729}">
+    <tableStyle name="绿色中色系标题行镶边行表格样式" count="5" xr9:uid="{72735B24-2A56-4BB9-BCE8-6A6B24205533}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
       <tableStyleElement type="firstColumnStripe" dxfId="1"/>
       <tableStyleElement type="secondColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="蓝色镶边行表格样式" count="5" xr9:uid="{18A81CD7-587E-4ED1-92C4-9046577D2F4D}">
+    <tableStyle name="蓝色镶边行表格样式" count="5" xr9:uid="{0F43656C-7432-4587-A1A6-6D5C658578BC}">
       <tableStyleElement type="wholeTable" dxfId="9"/>
       <tableStyleElement type="headerRow" dxfId="8"/>
       <tableStyleElement type="totalRow" dxfId="7"/>
       <tableStyleElement type="firstRowStripe" dxfId="6"/>
       <tableStyleElement type="secondRowStripe" dxfId="5"/>
     </tableStyle>
-    <tableStyle name="红色线条灰白相间表格样式" count="4" xr9:uid="{E227588D-4322-4BE9-B713-84617A7CE6BD}">
+    <tableStyle name="红色线条灰白相间表格样式" count="4" xr9:uid="{655483DA-BE4A-4CB1-856C-6B81C52990BF}">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="firstRowStripe" dxfId="11"/>
       <tableStyleElement type="secondRowStripe" dxfId="10"/>
     </tableStyle>
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{61470F93-99A6-493F-8D08-0652D42ED82D}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{B64951AC-0149-4210-AFF1-675CBCEE65DF}">
       <tableStyleElement type="wholeTable" dxfId="15"/>
       <tableStyleElement type="headerRow" dxfId="14"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{1D8B5751-3742-40F4-8E5C-5E12E753EF4A}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{66E11475-9D0F-4A86-91CA-250B7350516A}">
       <tableStyleElement type="wholeTable" dxfId="18"/>
       <tableStyleElement type="headerRow" dxfId="17"/>
       <tableStyleElement type="secondRowStripe" dxfId="16"/>
@@ -1624,7 +1624,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="D6" sqref="D6"/>
+      <selection pane="topRight" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>

--- a/excels/config/server/hero/server_hero_star.xlsx
+++ b/excels/config/server/hero/server_hero_star.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="server_hero_star" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="51">
   <si>
     <t>下标</t>
   </si>
@@ -39,6 +39,12 @@
   </si>
   <si>
     <t>效果说明</t>
+  </si>
+  <si>
+    <t>UP</t>
+  </si>
+  <si>
+    <t>NEW</t>
   </si>
   <si>
     <t>星级
@@ -94,6 +100,13 @@
     <t>小黑1星</t>
   </si>
   <si>
+    <t>1技能开放所有分支
+2技能只开放【散射】分支
+4技能只开放【箭雨】分支
+5技能只开放基础效果
+锁定所有被动技能</t>
+  </si>
+  <si>
     <t>null</t>
   </si>
   <si>
@@ -103,35 +116,93 @@
     <t>小黑2星</t>
   </si>
   <si>
-    <t>解锁每个技能里面的被动技能加点
-攻击力+20
-基础技能伤害*20%</t>
+    <t xml:space="preserve">
+</t>
+  </si>
+  <si>
+    <t>攻击力+20
+基础技能伤害+20%</t>
+  </si>
+  <si>
+    <t>解锁被动技能</t>
   </si>
   <si>
     <t>小黑3星</t>
   </si>
   <si>
-    <t>解锁2技能【连续射击】分支
-攻击速度+25%
-基础技能伤害*20%</t>
+    <t>攻击速度+25%
+攻击力+20%</t>
+  </si>
+  <si>
+    <t>解锁2技能【连续射击】分支</t>
   </si>
   <si>
     <t>小黑4星</t>
   </si>
   <si>
-    <t>解锁3技能【风暴环绕】分支，
-4技能【能量回复】分支
-全元素穿透+15%
-所有技能基础伤害*25%</t>
+    <t>全元素伤害+15%
+技能强度+25%</t>
+  </si>
+  <si>
+    <t>解锁4技能【风暴环绕】分支</t>
   </si>
   <si>
     <t>小黑5星</t>
   </si>
   <si>
-    <t>解锁5技能【寒霜】、【追风】、【热烈】分支，
-并为复仇赋予【持续型】技能标签
-全元素伤害+15%
-所有技能基础伤害*35%</t>
+    <t>全元素穿透+15%
+技能强度+50%</t>
+  </si>
+  <si>
+    <t>解锁5技能所有分支
+并为复仇赋予【持续型】技能标签</t>
+  </si>
+  <si>
+    <t>法爷1星</t>
+  </si>
+  <si>
+    <t>1技能开放所有分支
+2技能只开放【雷电屏障】分支
+4技能只开放【元素轰炸】分支
+5技能开放所有分支
+锁定所有被动技能</t>
+  </si>
+  <si>
+    <t>法爷2星</t>
+  </si>
+  <si>
+    <t>攻击力+10
+技能强度+20%</t>
+  </si>
+  <si>
+    <t>法爷3星</t>
+  </si>
+  <si>
+    <t>攻击力+10%
+技能强度+25%</t>
+  </si>
+  <si>
+    <t>解锁2技能【元素缠绕】分支</t>
+  </si>
+  <si>
+    <t>法爷4星</t>
+  </si>
+  <si>
+    <t>全元素伤害+15%
+暴击概率+15%</t>
+  </si>
+  <si>
+    <t>解锁4技能【法阵】分支</t>
+  </si>
+  <si>
+    <t>法爷5星</t>
+  </si>
+  <si>
+    <t>全元素穿透+15%
+暴击伤害+50%</t>
+  </si>
+  <si>
+    <t>奥术分身赋予【持续型】技能标签</t>
   </si>
 </sst>
 </file>
@@ -876,13 +947,16 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -914,7 +988,13 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1289,31 +1369,31 @@
     </dxf>
   </dxfs>
   <tableStyles count="5" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="绿色中色系标题行镶边行表格样式" count="5" xr9:uid="{72735B24-2A56-4BB9-BCE8-6A6B24205533}">
+    <tableStyle name="绿色中色系标题行镶边行表格样式" count="5" xr9:uid="{1635A9DD-556D-4BD9-8728-4E8E94584A0C}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
       <tableStyleElement type="firstColumnStripe" dxfId="1"/>
       <tableStyleElement type="secondColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="蓝色镶边行表格样式" count="5" xr9:uid="{0F43656C-7432-4587-A1A6-6D5C658578BC}">
+    <tableStyle name="蓝色镶边行表格样式" count="5" xr9:uid="{22A3B0C2-CD6E-44A1-8FFE-15B0DE1F46A5}">
       <tableStyleElement type="wholeTable" dxfId="9"/>
       <tableStyleElement type="headerRow" dxfId="8"/>
       <tableStyleElement type="totalRow" dxfId="7"/>
       <tableStyleElement type="firstRowStripe" dxfId="6"/>
       <tableStyleElement type="secondRowStripe" dxfId="5"/>
     </tableStyle>
-    <tableStyle name="红色线条灰白相间表格样式" count="4" xr9:uid="{655483DA-BE4A-4CB1-856C-6B81C52990BF}">
+    <tableStyle name="红色线条灰白相间表格样式" count="4" xr9:uid="{378154A1-D81F-426C-BC67-003DCCA141F4}">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="firstRowStripe" dxfId="11"/>
       <tableStyleElement type="secondRowStripe" dxfId="10"/>
     </tableStyle>
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{B64951AC-0149-4210-AFF1-675CBCEE65DF}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{B49E85A2-5241-48F9-9212-7AFCC601770A}">
       <tableStyleElement type="wholeTable" dxfId="15"/>
       <tableStyleElement type="headerRow" dxfId="14"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{66E11475-9D0F-4A86-91CA-250B7350516A}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{39B9C227-BB26-41ED-BAE6-3C1E0E61543B}">
       <tableStyleElement type="wholeTable" dxfId="18"/>
       <tableStyleElement type="headerRow" dxfId="17"/>
       <tableStyleElement type="secondRowStripe" dxfId="16"/>
@@ -1619,43 +1699,45 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:U8"/>
+  <dimension ref="A1:W13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="C8" sqref="C8"/>
+      <selection pane="topRight" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="8.34166666666667" customWidth="1"/>
-    <col min="2" max="2" width="32.3416666666667" customWidth="1"/>
+    <col min="2" max="2" width="32.3416666666667" style="2" customWidth="1"/>
     <col min="3" max="3" width="45.375" customWidth="1"/>
-    <col min="4" max="4" width="33.125" customWidth="1"/>
-    <col min="5" max="5" width="9.25" customWidth="1"/>
-    <col min="6" max="6" width="13.3416666666667" customWidth="1"/>
-    <col min="7" max="7" width="13.5083333333333" customWidth="1"/>
-    <col min="8" max="8" width="26.675" customWidth="1"/>
-    <col min="9" max="9" width="17.175" style="2" customWidth="1"/>
-    <col min="10" max="10" width="11.375" style="2" customWidth="1"/>
-    <col min="11" max="11" width="9.5" style="2" customWidth="1"/>
-    <col min="12" max="12" width="7" style="2" customWidth="1"/>
-    <col min="13" max="15" width="6.24166666666667" style="2" customWidth="1"/>
-    <col min="16" max="16" width="8.34166666666667" style="2" customWidth="1"/>
-    <col min="17" max="17" width="17.3416666666667" style="2" customWidth="1"/>
-    <col min="18" max="20" width="6.24166666666667" style="2" customWidth="1"/>
-    <col min="21" max="21" width="6.55" style="2" customWidth="1"/>
+    <col min="4" max="4" width="33.125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="35.875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="33.125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="9.25" customWidth="1"/>
+    <col min="8" max="8" width="13.3416666666667" customWidth="1"/>
+    <col min="9" max="9" width="13.5083333333333" customWidth="1"/>
+    <col min="10" max="10" width="26.675" customWidth="1"/>
+    <col min="11" max="11" width="17.175" style="3" customWidth="1"/>
+    <col min="12" max="12" width="11.375" style="3" customWidth="1"/>
+    <col min="13" max="13" width="9.5" style="3" customWidth="1"/>
+    <col min="14" max="14" width="7" style="3" customWidth="1"/>
+    <col min="15" max="17" width="6.24166666666667" style="3" customWidth="1"/>
+    <col min="18" max="18" width="8.34166666666667" style="3" customWidth="1"/>
+    <col min="19" max="19" width="17.3416666666667" style="3" customWidth="1"/>
+    <col min="20" max="22" width="6.24166666666667" style="3" customWidth="1"/>
+    <col min="23" max="23" width="6.55" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="108" customHeight="1" spans="1:21">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="1" customFormat="1" ht="108" customHeight="1" spans="1:23">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
@@ -1664,310 +1746,443 @@
       <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4">
+      <c r="I1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="5">
         <v>0</v>
       </c>
-      <c r="J1" s="4">
+      <c r="L1" s="5">
         <v>1</v>
       </c>
-      <c r="K1" s="4">
+      <c r="M1" s="5">
         <v>2</v>
       </c>
-      <c r="L1" s="4">
+      <c r="N1" s="5">
         <v>3</v>
       </c>
-      <c r="M1" s="4">
+      <c r="O1" s="5">
         <v>4</v>
       </c>
-      <c r="N1" s="4">
+      <c r="P1" s="5">
         <v>5</v>
       </c>
-      <c r="O1" s="4">
+      <c r="Q1" s="5">
         <v>6</v>
       </c>
-      <c r="P1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q1" s="4">
+      <c r="R1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="S1" s="5">
         <v>0</v>
       </c>
-      <c r="R1" s="4">
+      <c r="T1" s="5">
         <v>1</v>
       </c>
-      <c r="S1" s="4">
+      <c r="U1" s="5">
         <v>2</v>
       </c>
-      <c r="T1" s="4">
+      <c r="V1" s="5">
         <v>3</v>
       </c>
-      <c r="U1" s="13" t="s">
-        <v>9</v>
+      <c r="W1" s="16" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:21">
-      <c r="A2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="8" t="s">
+    <row r="2" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:23">
+      <c r="A2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="B2" s="8"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="7">
+      <c r="J2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="8">
         <v>1</v>
       </c>
-      <c r="K2" s="7">
+      <c r="M2" s="8">
         <v>2</v>
       </c>
-      <c r="L2" s="7">
+      <c r="N2" s="8">
         <v>3</v>
       </c>
-      <c r="M2" s="7">
+      <c r="O2" s="8">
         <v>4</v>
       </c>
-      <c r="N2" s="7">
+      <c r="P2" s="8">
         <v>5</v>
       </c>
-      <c r="O2" s="7">
+      <c r="Q2" s="8">
         <v>6</v>
       </c>
-      <c r="P2" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q2" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="R2" s="7">
+      <c r="R2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="S2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="T2" s="8">
         <v>1</v>
       </c>
-      <c r="S2" s="7">
+      <c r="U2" s="8">
         <v>2</v>
       </c>
-      <c r="T2" s="7">
+      <c r="V2" s="8">
         <v>3</v>
       </c>
-      <c r="U2" s="14" t="s">
-        <v>17</v>
+      <c r="W2" s="17" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:21">
-      <c r="A3" s="9"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="11"/>
+    <row r="3" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:23">
+      <c r="A3" s="10"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="12"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
-      <c r="U3" s="15"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="11"/>
+      <c r="W3" s="18"/>
     </row>
-    <row r="4" ht="39" customHeight="1" spans="1:21">
-      <c r="A4" s="9">
+    <row r="4" ht="82.5" spans="1:23">
+      <c r="A4" s="10">
         <v>1</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="11" t="s">
+      <c r="B4" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11">
+        <v>1</v>
+      </c>
+      <c r="G4" s="12">
+        <v>6</v>
+      </c>
+      <c r="H4" s="11">
+        <v>0</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="18"/>
+    </row>
+    <row r="5" ht="60" customHeight="1" spans="1:23">
+      <c r="A5" s="7">
         <v>2</v>
       </c>
-      <c r="D4" s="11">
+      <c r="B5" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="13">
+        <v>2</v>
+      </c>
+      <c r="G5" s="12">
+        <v>6</v>
+      </c>
+      <c r="H5" s="8">
+        <v>0</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="17"/>
+    </row>
+    <row r="6" ht="52" customHeight="1" spans="1:23">
+      <c r="A6" s="10">
+        <v>3</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="11">
+        <v>3</v>
+      </c>
+      <c r="G6" s="12">
+        <v>6</v>
+      </c>
+      <c r="H6" s="11">
+        <v>0</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="18"/>
+    </row>
+    <row r="7" ht="69" customHeight="1" spans="1:10">
+      <c r="A7" s="10">
+        <v>4</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="11">
+        <v>4</v>
+      </c>
+      <c r="G7" s="12">
+        <v>6</v>
+      </c>
+      <c r="H7" s="11">
+        <v>0</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" ht="54" customHeight="1" spans="1:10">
+      <c r="A8" s="7">
+        <v>5</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="11">
+        <v>5</v>
+      </c>
+      <c r="G8" s="12">
+        <v>6</v>
+      </c>
+      <c r="H8" s="11">
+        <v>0</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" ht="67.5" spans="1:7">
+      <c r="A9" s="7">
+        <v>6</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="2">
         <v>1</v>
       </c>
-      <c r="E4" s="11">
-        <v>6</v>
-      </c>
-      <c r="F4" s="10">
-        <v>0</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="10"/>
-      <c r="U4" s="15"/>
+      <c r="G9">
+        <v>101</v>
+      </c>
     </row>
-    <row r="5" ht="60" customHeight="1" spans="1:21">
-      <c r="A5" s="6">
+    <row r="10" ht="27" spans="1:7">
+      <c r="A10" s="7">
+        <v>7</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="2">
         <v>2</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="12">
-        <v>2</v>
-      </c>
-      <c r="E5" s="11">
-        <v>6</v>
-      </c>
-      <c r="F5" s="7">
-        <v>0</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
-      <c r="U5" s="14"/>
+      <c r="G10">
+        <v>101</v>
+      </c>
     </row>
-    <row r="6" ht="52" customHeight="1" spans="1:21">
-      <c r="A6" s="9">
+    <row r="11" ht="27" spans="1:7">
+      <c r="A11" s="7">
+        <v>8</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="2">
         <v>3</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="11">
-        <v>3</v>
-      </c>
-      <c r="E6" s="11">
-        <v>6</v>
-      </c>
-      <c r="F6" s="10">
-        <v>0</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="10"/>
-      <c r="T6" s="10"/>
-      <c r="U6" s="15"/>
+      <c r="G11">
+        <v>101</v>
+      </c>
     </row>
-    <row r="7" ht="69" customHeight="1" spans="1:8">
-      <c r="A7" s="9">
+    <row r="12" ht="27" spans="1:7">
+      <c r="A12" s="7">
+        <v>9</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="2">
         <v>4</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="11">
-        <v>4</v>
-      </c>
-      <c r="E7" s="11">
-        <v>6</v>
-      </c>
-      <c r="F7" s="10">
-        <v>0</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>21</v>
+      <c r="G12">
+        <v>101</v>
       </c>
     </row>
-    <row r="8" ht="54" customHeight="1" spans="1:8">
-      <c r="A8" s="6">
+    <row r="13" ht="27" spans="1:7">
+      <c r="A13" s="7">
+        <v>10</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="2">
         <v>5</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="11">
-        <v>5</v>
-      </c>
-      <c r="E8" s="11">
-        <v>6</v>
-      </c>
-      <c r="F8" s="10">
-        <v>0</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>21</v>
+      <c r="G13">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F3">
+  <conditionalFormatting sqref="H3">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -1979,7 +2194,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:F2 F4:F1048576">
+  <conditionalFormatting sqref="H1:H2 H4:H1048576">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
